--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Ckap4</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.29320300801706</v>
+        <v>2.416422666666667</v>
       </c>
       <c r="H2">
-        <v>2.29320300801706</v>
+        <v>7.249268</v>
       </c>
       <c r="I2">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="J2">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.20628193347084</v>
+        <v>5.426599333333333</v>
       </c>
       <c r="N2">
-        <v>3.20628193347084</v>
+        <v>16.279798</v>
       </c>
       <c r="O2">
-        <v>0.01970280198388548</v>
+        <v>0.0320709464471805</v>
       </c>
       <c r="P2">
-        <v>0.01970280198388548</v>
+        <v>0.0320709464471805</v>
       </c>
       <c r="Q2">
-        <v>7.352655374386085</v>
+        <v>13.11295763198489</v>
       </c>
       <c r="R2">
-        <v>7.352655374386085</v>
+        <v>118.016618687864</v>
       </c>
       <c r="S2">
-        <v>0.005746026676198838</v>
+        <v>0.008752530834558833</v>
       </c>
       <c r="T2">
-        <v>0.005746026676198838</v>
+        <v>0.008752530834558833</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.29320300801706</v>
+        <v>2.416422666666667</v>
       </c>
       <c r="H3">
-        <v>2.29320300801706</v>
+        <v>7.249268</v>
       </c>
       <c r="I3">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="J3">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>114.589467010422</v>
+        <v>114.9117303333333</v>
       </c>
       <c r="N3">
-        <v>114.589467010422</v>
+        <v>344.735191</v>
       </c>
       <c r="O3">
-        <v>0.7041594048160629</v>
+        <v>0.6791229135041811</v>
       </c>
       <c r="P3">
-        <v>0.7041594048160629</v>
+        <v>0.6791229135041811</v>
       </c>
       <c r="Q3">
-        <v>262.7769104353714</v>
+        <v>277.6753098433542</v>
       </c>
       <c r="R3">
-        <v>262.7769104353714</v>
+        <v>2499.077788590188</v>
       </c>
       <c r="S3">
-        <v>0.2053575287250327</v>
+        <v>0.1853404685356065</v>
       </c>
       <c r="T3">
-        <v>0.2053575287250327</v>
+        <v>0.1853404685356065</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.29320300801706</v>
+        <v>2.416422666666667</v>
       </c>
       <c r="H4">
-        <v>2.29320300801706</v>
+        <v>7.249268</v>
       </c>
       <c r="I4">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="J4">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.7402170123598</v>
+        <v>13.88967966666667</v>
       </c>
       <c r="N4">
-        <v>10.7402170123598</v>
+        <v>41.669039</v>
       </c>
       <c r="O4">
-        <v>0.0659993018235331</v>
+        <v>0.08208735257491988</v>
       </c>
       <c r="P4">
-        <v>0.0659993018235331</v>
+        <v>0.08208735257491988</v>
       </c>
       <c r="Q4">
-        <v>24.6294979594995</v>
+        <v>33.56333677927244</v>
       </c>
       <c r="R4">
-        <v>24.6294979594995</v>
+        <v>302.070031013452</v>
       </c>
       <c r="S4">
-        <v>0.01924770645305614</v>
+        <v>0.02240258439901616</v>
       </c>
       <c r="T4">
-        <v>0.01924770645305614</v>
+        <v>0.02240258439901616</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.29320300801706</v>
+        <v>2.416422666666667</v>
       </c>
       <c r="H5">
-        <v>2.29320300801706</v>
+        <v>7.249268</v>
       </c>
       <c r="I5">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="J5">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.819115547550229</v>
+        <v>8.880702999999999</v>
       </c>
       <c r="N5">
-        <v>8.819115547550229</v>
+        <v>26.642109</v>
       </c>
       <c r="O5">
-        <v>0.05419401378664451</v>
+        <v>0.05248453641617331</v>
       </c>
       <c r="P5">
-        <v>0.05419401378664451</v>
+        <v>0.05248453641617332</v>
       </c>
       <c r="Q5">
-        <v>20.22402230169221</v>
+        <v>21.45953202513466</v>
       </c>
       <c r="R5">
-        <v>20.22402230169221</v>
+        <v>193.135788226212</v>
       </c>
       <c r="S5">
-        <v>0.01580487126465743</v>
+        <v>0.01432363476009821</v>
       </c>
       <c r="T5">
-        <v>0.01580487126465743</v>
+        <v>0.01432363476009822</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.29320300801706</v>
+        <v>2.416422666666667</v>
       </c>
       <c r="H6">
-        <v>2.29320300801706</v>
+        <v>7.249268</v>
       </c>
       <c r="I6">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="J6">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.7371394308496</v>
+        <v>13.96891333333333</v>
       </c>
       <c r="N6">
-        <v>13.7371394308496</v>
+        <v>41.90674</v>
       </c>
       <c r="O6">
-        <v>0.0844155765609988</v>
+        <v>0.0825556198127223</v>
       </c>
       <c r="P6">
-        <v>0.0844155765609988</v>
+        <v>0.08255561981272229</v>
       </c>
       <c r="Q6">
-        <v>31.50204946437407</v>
+        <v>33.75479880736889</v>
       </c>
       <c r="R6">
-        <v>31.50204946437407</v>
+        <v>303.79318926632</v>
       </c>
       <c r="S6">
-        <v>0.02461853675446368</v>
+        <v>0.02253037992399169</v>
       </c>
       <c r="T6">
-        <v>0.02461853675446368</v>
+        <v>0.02253037992399169</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.29320300801706</v>
+        <v>2.416422666666667</v>
       </c>
       <c r="H7">
-        <v>2.29320300801706</v>
+        <v>7.249268</v>
       </c>
       <c r="I7">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="J7">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.6400613109486</v>
+        <v>12.12846066666667</v>
       </c>
       <c r="N7">
-        <v>11.6400613109486</v>
+        <v>36.385382</v>
       </c>
       <c r="O7">
-        <v>0.0715289010288753</v>
+        <v>0.07167863124482289</v>
       </c>
       <c r="P7">
-        <v>0.0715289010288753</v>
+        <v>0.07167863124482289</v>
       </c>
       <c r="Q7">
-        <v>26.69302361177033</v>
+        <v>29.30748726670845</v>
       </c>
       <c r="R7">
-        <v>26.69302361177033</v>
+        <v>263.767385400376</v>
       </c>
       <c r="S7">
-        <v>0.02086033112281483</v>
+        <v>0.01956192440976245</v>
       </c>
       <c r="T7">
-        <v>0.02086033112281483</v>
+        <v>0.01956192440976245</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.87571753678448</v>
+        <v>2.913654666666667</v>
       </c>
       <c r="H8">
-        <v>2.87571753678448</v>
+        <v>8.740964</v>
       </c>
       <c r="I8">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319826</v>
       </c>
       <c r="J8">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319827</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.20628193347084</v>
+        <v>5.426599333333333</v>
       </c>
       <c r="N8">
-        <v>3.20628193347084</v>
+        <v>16.279798</v>
       </c>
       <c r="O8">
-        <v>0.01970280198388548</v>
+        <v>0.0320709464471805</v>
       </c>
       <c r="P8">
-        <v>0.01970280198388548</v>
+        <v>0.0320709464471805</v>
       </c>
       <c r="Q8">
-        <v>9.220361183957342</v>
+        <v>15.81123647169689</v>
       </c>
       <c r="R8">
-        <v>9.220361183957342</v>
+        <v>142.301128245272</v>
       </c>
       <c r="S8">
-        <v>0.007205620096349318</v>
+        <v>0.01055355615681041</v>
       </c>
       <c r="T8">
-        <v>0.007205620096349318</v>
+        <v>0.01055355615681042</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.87571753678448</v>
+        <v>2.913654666666667</v>
       </c>
       <c r="H9">
-        <v>2.87571753678448</v>
+        <v>8.740964</v>
       </c>
       <c r="I9">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319826</v>
       </c>
       <c r="J9">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319827</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>114.589467010422</v>
+        <v>114.9117303333333</v>
       </c>
       <c r="N9">
-        <v>114.589467010422</v>
+        <v>344.735191</v>
       </c>
       <c r="O9">
-        <v>0.7041594048160629</v>
+        <v>0.6791229135041811</v>
       </c>
       <c r="P9">
-        <v>0.7041594048160629</v>
+        <v>0.6791229135041811</v>
       </c>
       <c r="Q9">
-        <v>329.5269398126571</v>
+        <v>334.8130993404582</v>
       </c>
       <c r="R9">
-        <v>329.5269398126571</v>
+        <v>3013.317894064124</v>
       </c>
       <c r="S9">
-        <v>0.2575220094342846</v>
+        <v>0.2234783378422302</v>
       </c>
       <c r="T9">
-        <v>0.2575220094342846</v>
+        <v>0.2234783378422303</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.87571753678448</v>
+        <v>2.913654666666667</v>
       </c>
       <c r="H10">
-        <v>2.87571753678448</v>
+        <v>8.740964</v>
       </c>
       <c r="I10">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319826</v>
       </c>
       <c r="J10">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319827</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.7402170123598</v>
+        <v>13.88967966666667</v>
       </c>
       <c r="N10">
-        <v>10.7402170123598</v>
+        <v>41.669039</v>
       </c>
       <c r="O10">
-        <v>0.0659993018235331</v>
+        <v>0.08208735257491988</v>
       </c>
       <c r="P10">
-        <v>0.0659993018235331</v>
+        <v>0.08208735257491988</v>
       </c>
       <c r="Q10">
-        <v>30.88583041131409</v>
+        <v>40.46972997928844</v>
       </c>
       <c r="R10">
-        <v>30.88583041131409</v>
+        <v>364.227569813596</v>
       </c>
       <c r="S10">
-        <v>0.02413696772436885</v>
+        <v>0.02701240783742054</v>
       </c>
       <c r="T10">
-        <v>0.02413696772436885</v>
+        <v>0.02701240783742054</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.87571753678448</v>
+        <v>2.913654666666667</v>
       </c>
       <c r="H11">
-        <v>2.87571753678448</v>
+        <v>8.740964</v>
       </c>
       <c r="I11">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319826</v>
       </c>
       <c r="J11">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319827</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.819115547550229</v>
+        <v>8.880702999999999</v>
       </c>
       <c r="N11">
-        <v>8.819115547550229</v>
+        <v>26.642109</v>
       </c>
       <c r="O11">
-        <v>0.05419401378664451</v>
+        <v>0.05248453641617331</v>
       </c>
       <c r="P11">
-        <v>0.05419401378664451</v>
+        <v>0.05248453641617332</v>
       </c>
       <c r="Q11">
-        <v>25.36128523901886</v>
+        <v>25.87530173923066</v>
       </c>
       <c r="R11">
-        <v>25.36128523901886</v>
+        <v>232.877715653076</v>
       </c>
       <c r="S11">
-        <v>0.01981959089688162</v>
+        <v>0.01727103699120616</v>
       </c>
       <c r="T11">
-        <v>0.01981959089688162</v>
+        <v>0.01727103699120617</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.87571753678448</v>
+        <v>2.913654666666667</v>
       </c>
       <c r="H12">
-        <v>2.87571753678448</v>
+        <v>8.740964</v>
       </c>
       <c r="I12">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319826</v>
       </c>
       <c r="J12">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319827</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.7371394308496</v>
+        <v>13.96891333333333</v>
       </c>
       <c r="N12">
-        <v>13.7371394308496</v>
+        <v>41.90674</v>
       </c>
       <c r="O12">
-        <v>0.0844155765609988</v>
+        <v>0.0825556198127223</v>
       </c>
       <c r="P12">
-        <v>0.0844155765609988</v>
+        <v>0.08255561981272229</v>
       </c>
       <c r="Q12">
-        <v>39.50413276654776</v>
+        <v>40.70058952192888</v>
       </c>
       <c r="R12">
-        <v>39.50413276654776</v>
+        <v>366.30530569736</v>
       </c>
       <c r="S12">
-        <v>0.03087208486439321</v>
+        <v>0.02716650009655238</v>
       </c>
       <c r="T12">
-        <v>0.03087208486439321</v>
+        <v>0.02716650009655238</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.87571753678448</v>
+        <v>2.913654666666667</v>
       </c>
       <c r="H13">
-        <v>2.87571753678448</v>
+        <v>8.740964</v>
       </c>
       <c r="I13">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319826</v>
       </c>
       <c r="J13">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319827</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.6400613109486</v>
+        <v>12.12846066666667</v>
       </c>
       <c r="N13">
-        <v>11.6400613109486</v>
+        <v>36.385382</v>
       </c>
       <c r="O13">
-        <v>0.0715289010288753</v>
+        <v>0.07167863124482289</v>
       </c>
       <c r="P13">
-        <v>0.0715289010288753</v>
+        <v>0.07167863124482289</v>
       </c>
       <c r="Q13">
-        <v>33.47352844114143</v>
+        <v>35.33814602091645</v>
       </c>
       <c r="R13">
-        <v>33.47352844114143</v>
+        <v>318.043314188248</v>
       </c>
       <c r="S13">
-        <v>0.02615922786743676</v>
+        <v>0.02358721970776288</v>
       </c>
       <c r="T13">
-        <v>0.02615922786743676</v>
+        <v>0.02358721970776289</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.69434346734889</v>
+        <v>0.02921733333333333</v>
       </c>
       <c r="H14">
-        <v>2.69434346734889</v>
+        <v>0.08765200000000001</v>
       </c>
       <c r="I14">
-        <v>0.342649498120062</v>
+        <v>0.003299814657423431</v>
       </c>
       <c r="J14">
-        <v>0.342649498120062</v>
+        <v>0.003299814657423432</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.20628193347084</v>
+        <v>5.426599333333333</v>
       </c>
       <c r="N14">
-        <v>3.20628193347084</v>
+        <v>16.279798</v>
       </c>
       <c r="O14">
-        <v>0.01970280198388548</v>
+        <v>0.0320709464471805</v>
       </c>
       <c r="P14">
-        <v>0.01970280198388548</v>
+        <v>0.0320709464471805</v>
       </c>
       <c r="Q14">
-        <v>8.638824781925926</v>
+        <v>0.1585507615884444</v>
       </c>
       <c r="R14">
-        <v>8.638824781925926</v>
+        <v>1.426956854296</v>
       </c>
       <c r="S14">
-        <v>0.00675115521133732</v>
+        <v>0.0001058281791638481</v>
       </c>
       <c r="T14">
-        <v>0.00675115521133732</v>
+        <v>0.0001058281791638481</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.69434346734889</v>
+        <v>0.02921733333333333</v>
       </c>
       <c r="H15">
-        <v>2.69434346734889</v>
+        <v>0.08765200000000001</v>
       </c>
       <c r="I15">
-        <v>0.342649498120062</v>
+        <v>0.003299814657423431</v>
       </c>
       <c r="J15">
-        <v>0.342649498120062</v>
+        <v>0.003299814657423432</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>114.589467010422</v>
+        <v>114.9117303333333</v>
       </c>
       <c r="N15">
-        <v>114.589467010422</v>
+        <v>344.735191</v>
       </c>
       <c r="O15">
-        <v>0.7041594048160629</v>
+        <v>0.6791229135041811</v>
       </c>
       <c r="P15">
-        <v>0.7041594048160629</v>
+        <v>0.6791229135041811</v>
       </c>
       <c r="Q15">
-        <v>308.7433818665216</v>
+        <v>3.357414329059111</v>
       </c>
       <c r="R15">
-        <v>308.7433818665216</v>
+        <v>30.216728961532</v>
       </c>
       <c r="S15">
-        <v>0.2412798666567455</v>
+        <v>0.002240979744173202</v>
       </c>
       <c r="T15">
-        <v>0.2412798666567455</v>
+        <v>0.002240979744173202</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>2.69434346734889</v>
+        <v>0.02921733333333333</v>
       </c>
       <c r="H16">
-        <v>2.69434346734889</v>
+        <v>0.08765200000000001</v>
       </c>
       <c r="I16">
-        <v>0.342649498120062</v>
+        <v>0.003299814657423431</v>
       </c>
       <c r="J16">
-        <v>0.342649498120062</v>
+        <v>0.003299814657423432</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.7402170123598</v>
+        <v>13.88967966666667</v>
       </c>
       <c r="N16">
-        <v>10.7402170123598</v>
+        <v>41.669039</v>
       </c>
       <c r="O16">
-        <v>0.0659993018235331</v>
+        <v>0.08208735257491988</v>
       </c>
       <c r="P16">
-        <v>0.0659993018235331</v>
+        <v>0.08208735257491988</v>
       </c>
       <c r="Q16">
-        <v>28.93783354516104</v>
+        <v>0.4058194007142222</v>
       </c>
       <c r="R16">
-        <v>28.93783354516104</v>
+        <v>3.652374606428</v>
       </c>
       <c r="S16">
-        <v>0.02261462764610811</v>
+        <v>0.0002708730492158056</v>
       </c>
       <c r="T16">
-        <v>0.02261462764610811</v>
+        <v>0.0002708730492158057</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>2.69434346734889</v>
+        <v>0.02921733333333333</v>
       </c>
       <c r="H17">
-        <v>2.69434346734889</v>
+        <v>0.08765200000000001</v>
       </c>
       <c r="I17">
-        <v>0.342649498120062</v>
+        <v>0.003299814657423431</v>
       </c>
       <c r="J17">
-        <v>0.342649498120062</v>
+        <v>0.003299814657423432</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.819115547550229</v>
+        <v>8.880702999999999</v>
       </c>
       <c r="N17">
-        <v>8.819115547550229</v>
+        <v>26.642109</v>
       </c>
       <c r="O17">
-        <v>0.05419401378664451</v>
+        <v>0.05248453641617331</v>
       </c>
       <c r="P17">
-        <v>0.05419401378664451</v>
+        <v>0.05248453641617332</v>
       </c>
       <c r="Q17">
-        <v>23.76172636333699</v>
+        <v>0.2594704597853333</v>
       </c>
       <c r="R17">
-        <v>23.76172636333699</v>
+        <v>2.335234138068</v>
       </c>
       <c r="S17">
-        <v>0.01856955162510546</v>
+        <v>0.0001731892425541625</v>
       </c>
       <c r="T17">
-        <v>0.01856955162510546</v>
+        <v>0.0001731892425541626</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>2.69434346734889</v>
+        <v>0.02921733333333333</v>
       </c>
       <c r="H18">
-        <v>2.69434346734889</v>
+        <v>0.08765200000000001</v>
       </c>
       <c r="I18">
-        <v>0.342649498120062</v>
+        <v>0.003299814657423431</v>
       </c>
       <c r="J18">
-        <v>0.342649498120062</v>
+        <v>0.003299814657423432</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>13.7371394308496</v>
+        <v>13.96891333333333</v>
       </c>
       <c r="N18">
-        <v>13.7371394308496</v>
+        <v>41.90674</v>
       </c>
       <c r="O18">
-        <v>0.0844155765609988</v>
+        <v>0.0825556198127223</v>
       </c>
       <c r="P18">
-        <v>0.0844155765609988</v>
+        <v>0.08255561981272229</v>
       </c>
       <c r="Q18">
-        <v>37.01257188557047</v>
+        <v>0.4081343971644444</v>
       </c>
       <c r="R18">
-        <v>37.01257188557047</v>
+        <v>3.67320957448</v>
       </c>
       <c r="S18">
-        <v>0.02892495494214191</v>
+        <v>0.0002724182443106973</v>
       </c>
       <c r="T18">
-        <v>0.02892495494214191</v>
+        <v>0.0002724182443106972</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.02921733333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.08765200000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.003299814657423431</v>
+      </c>
+      <c r="J19">
+        <v>0.003299814657423432</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>12.12846066666667</v>
+      </c>
+      <c r="N19">
+        <v>36.385382</v>
+      </c>
+      <c r="O19">
+        <v>0.07167863124482289</v>
+      </c>
+      <c r="P19">
+        <v>0.07167863124482289</v>
+      </c>
+      <c r="Q19">
+        <v>0.3543612781182223</v>
+      </c>
+      <c r="R19">
+        <v>3.189251503064</v>
+      </c>
+      <c r="S19">
+        <v>0.0002365261980057157</v>
+      </c>
+      <c r="T19">
+        <v>0.0002365261980057157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.02851766666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.085553</v>
+      </c>
+      <c r="I20">
+        <v>0.003220794087830817</v>
+      </c>
+      <c r="J20">
+        <v>0.003220794087830818</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.426599333333333</v>
+      </c>
+      <c r="N20">
+        <v>16.279798</v>
+      </c>
+      <c r="O20">
+        <v>0.0320709464471805</v>
+      </c>
+      <c r="P20">
+        <v>0.0320709464471805</v>
+      </c>
+      <c r="Q20">
+        <v>0.1547539509215556</v>
+      </c>
+      <c r="R20">
+        <v>1.392785558294</v>
+      </c>
+      <c r="S20">
+        <v>0.0001032939147082177</v>
+      </c>
+      <c r="T20">
+        <v>0.0001032939147082177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.02851766666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.085553</v>
+      </c>
+      <c r="I21">
+        <v>0.003220794087830817</v>
+      </c>
+      <c r="J21">
+        <v>0.003220794087830818</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>114.9117303333333</v>
+      </c>
+      <c r="N21">
+        <v>344.735191</v>
+      </c>
+      <c r="O21">
+        <v>0.6791229135041811</v>
+      </c>
+      <c r="P21">
+        <v>0.6791229135041811</v>
+      </c>
+      <c r="Q21">
+        <v>3.277014421735889</v>
+      </c>
+      <c r="R21">
+        <v>29.493129795623</v>
+      </c>
+      <c r="S21">
+        <v>0.002187315064724706</v>
+      </c>
+      <c r="T21">
+        <v>0.002187315064724706</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.02851766666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.085553</v>
+      </c>
+      <c r="I22">
+        <v>0.003220794087830817</v>
+      </c>
+      <c r="J22">
+        <v>0.003220794087830818</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.88967966666667</v>
+      </c>
+      <c r="N22">
+        <v>41.669039</v>
+      </c>
+      <c r="O22">
+        <v>0.08208735257491988</v>
+      </c>
+      <c r="P22">
+        <v>0.08208735257491988</v>
+      </c>
+      <c r="Q22">
+        <v>0.3961012548407777</v>
+      </c>
+      <c r="R22">
+        <v>3.564911293567</v>
+      </c>
+      <c r="S22">
+        <v>0.0002643864598589858</v>
+      </c>
+      <c r="T22">
+        <v>0.0002643864598589858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.02851766666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.085553</v>
+      </c>
+      <c r="I23">
+        <v>0.003220794087830817</v>
+      </c>
+      <c r="J23">
+        <v>0.003220794087830818</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.880702999999999</v>
+      </c>
+      <c r="N23">
+        <v>26.642109</v>
+      </c>
+      <c r="O23">
+        <v>0.05248453641617331</v>
+      </c>
+      <c r="P23">
+        <v>0.05248453641617332</v>
+      </c>
+      <c r="Q23">
+        <v>0.2532569279196666</v>
+      </c>
+      <c r="R23">
+        <v>2.279312351277</v>
+      </c>
+      <c r="S23">
+        <v>0.0001690418845917522</v>
+      </c>
+      <c r="T23">
+        <v>0.0001690418845917523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.02851766666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.085553</v>
+      </c>
+      <c r="I24">
+        <v>0.003220794087830817</v>
+      </c>
+      <c r="J24">
+        <v>0.003220794087830818</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>13.96891333333333</v>
+      </c>
+      <c r="N24">
+        <v>41.90674</v>
+      </c>
+      <c r="O24">
+        <v>0.0825556198127223</v>
+      </c>
+      <c r="P24">
+        <v>0.08255561981272229</v>
+      </c>
+      <c r="Q24">
+        <v>0.3983608141355556</v>
+      </c>
+      <c r="R24">
+        <v>3.58524732722</v>
+      </c>
+      <c r="S24">
+        <v>0.0002658946522100247</v>
+      </c>
+      <c r="T24">
+        <v>0.0002658946522100247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.02851766666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.085553</v>
+      </c>
+      <c r="I25">
+        <v>0.003220794087830817</v>
+      </c>
+      <c r="J25">
+        <v>0.003220794087830818</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.12846066666667</v>
+      </c>
+      <c r="N25">
+        <v>36.385382</v>
+      </c>
+      <c r="O25">
+        <v>0.07167863124482289</v>
+      </c>
+      <c r="P25">
+        <v>0.07167863124482289</v>
+      </c>
+      <c r="Q25">
+        <v>0.3458753984717778</v>
+      </c>
+      <c r="R25">
+        <v>3.112878586246</v>
+      </c>
+      <c r="S25">
+        <v>0.0002308621117371309</v>
+      </c>
+      <c r="T25">
+        <v>0.0002308621117371309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.466422333333333</v>
+      </c>
+      <c r="H26">
+        <v>10.399267</v>
+      </c>
+      <c r="I26">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="J26">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.426599333333333</v>
+      </c>
+      <c r="N26">
+        <v>16.279798</v>
+      </c>
+      <c r="O26">
+        <v>0.0320709464471805</v>
+      </c>
+      <c r="P26">
+        <v>0.0320709464471805</v>
+      </c>
+      <c r="Q26">
+        <v>18.81088512311844</v>
+      </c>
+      <c r="R26">
+        <v>169.297966108066</v>
+      </c>
+      <c r="S26">
+        <v>0.01255573736193918</v>
+      </c>
+      <c r="T26">
+        <v>0.01255573736193918</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.466422333333333</v>
+      </c>
+      <c r="H27">
+        <v>10.399267</v>
+      </c>
+      <c r="I27">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="J27">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>114.9117303333333</v>
+      </c>
+      <c r="N27">
+        <v>344.735191</v>
+      </c>
+      <c r="O27">
+        <v>0.6791229135041811</v>
+      </c>
+      <c r="P27">
+        <v>0.6791229135041811</v>
+      </c>
+      <c r="Q27">
+        <v>398.3325883894441</v>
+      </c>
+      <c r="R27">
+        <v>3584.993295504997</v>
+      </c>
+      <c r="S27">
+        <v>0.2658758123174464</v>
+      </c>
+      <c r="T27">
+        <v>0.2658758123174465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2.69434346734889</v>
-      </c>
-      <c r="H19">
-        <v>2.69434346734889</v>
-      </c>
-      <c r="I19">
-        <v>0.342649498120062</v>
-      </c>
-      <c r="J19">
-        <v>0.342649498120062</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>11.6400613109486</v>
-      </c>
-      <c r="N19">
-        <v>11.6400613109486</v>
-      </c>
-      <c r="O19">
-        <v>0.0715289010288753</v>
-      </c>
-      <c r="P19">
-        <v>0.0715289010288753</v>
-      </c>
-      <c r="Q19">
-        <v>31.36232315269492</v>
-      </c>
-      <c r="R19">
-        <v>31.36232315269492</v>
-      </c>
-      <c r="S19">
-        <v>0.02450934203862371</v>
-      </c>
-      <c r="T19">
-        <v>0.02450934203862371</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.466422333333333</v>
+      </c>
+      <c r="H28">
+        <v>10.399267</v>
+      </c>
+      <c r="I28">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="J28">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>13.88967966666667</v>
+      </c>
+      <c r="N28">
+        <v>41.669039</v>
+      </c>
+      <c r="O28">
+        <v>0.08208735257491988</v>
+      </c>
+      <c r="P28">
+        <v>0.08208735257491988</v>
+      </c>
+      <c r="Q28">
+        <v>48.14749579937922</v>
+      </c>
+      <c r="R28">
+        <v>433.327462194413</v>
+      </c>
+      <c r="S28">
+        <v>0.03213710082940838</v>
+      </c>
+      <c r="T28">
+        <v>0.03213710082940838</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.466422333333333</v>
+      </c>
+      <c r="H29">
+        <v>10.399267</v>
+      </c>
+      <c r="I29">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="J29">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>8.880702999999999</v>
+      </c>
+      <c r="N29">
+        <v>26.642109</v>
+      </c>
+      <c r="O29">
+        <v>0.05248453641617331</v>
+      </c>
+      <c r="P29">
+        <v>0.05248453641617332</v>
+      </c>
+      <c r="Q29">
+        <v>30.78426721490033</v>
+      </c>
+      <c r="R29">
+        <v>277.058404934103</v>
+      </c>
+      <c r="S29">
+        <v>0.02054763353772302</v>
+      </c>
+      <c r="T29">
+        <v>0.02054763353772303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.466422333333333</v>
+      </c>
+      <c r="H30">
+        <v>10.399267</v>
+      </c>
+      <c r="I30">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="J30">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>13.96891333333333</v>
+      </c>
+      <c r="N30">
+        <v>41.90674</v>
+      </c>
+      <c r="O30">
+        <v>0.0825556198127223</v>
+      </c>
+      <c r="P30">
+        <v>0.08255561981272229</v>
+      </c>
+      <c r="Q30">
+        <v>48.42215315106444</v>
+      </c>
+      <c r="R30">
+        <v>435.79937835958</v>
+      </c>
+      <c r="S30">
+        <v>0.03232042689565751</v>
+      </c>
+      <c r="T30">
+        <v>0.03232042689565751</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.466422333333333</v>
+      </c>
+      <c r="H31">
+        <v>10.399267</v>
+      </c>
+      <c r="I31">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="J31">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>12.12846066666667</v>
+      </c>
+      <c r="N31">
+        <v>36.385382</v>
+      </c>
+      <c r="O31">
+        <v>0.07167863124482289</v>
+      </c>
+      <c r="P31">
+        <v>0.07167863124482289</v>
+      </c>
+      <c r="Q31">
+        <v>42.04236692388822</v>
+      </c>
+      <c r="R31">
+        <v>378.381302314994</v>
+      </c>
+      <c r="S31">
+        <v>0.02806209881755471</v>
+      </c>
+      <c r="T31">
+        <v>0.02806209881755471</v>
       </c>
     </row>
   </sheetData>
